--- a/fr/schedule/schedule-fr.xlsx
+++ b/fr/schedule/schedule-fr.xlsx
@@ -67,82 +67,6 @@
   </si>
   <si>
     <r>
-      <t>Michel Céré</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Killing Agility One Scrum Master at the Time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Mont-Bleu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Marie-Christine Legault</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agile marketing: a new reality!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Jean-Despréz</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Glenn Waters</t>
     </r>
     <r>
@@ -263,6 +187,198 @@
   </si>
   <si>
     <r>
+      <t>Mike Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leading for Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Jean-Despréz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mike Lowery</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coaching flow - Moving past resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Salle des Fêtes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Mike Bowler</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moving Towards Continuous Delivery: Getting there from here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Gatineau
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Steffan Surdek</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learning by doing at Bell Mobility OSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Jean-Despréz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Steve Purkis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban in the Kitchen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Mont-Bleu</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Dave Rooney</t>
     </r>
     <r>
@@ -285,6 +401,47 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Emergent Design with Test-Driven Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Gatineau</t>
+    </r>
+  </si>
+  <si>
+    <t>Bar - L'endroit sera divulgué durant la cérémonie de fermeture</t>
+  </si>
+  <si>
+    <r>
+      <t>Dave Rooney</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Continuous Improvement with Root Cause Analysis</t>
     </r>
     <r>
@@ -296,277 +453,45 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+Salle - Mont-Bleu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annette Lee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile Metrics - The Good, The Bad and The Ugly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Salle - Gatineau</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mike Edwards</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leading for Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Jean-Despréz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Annette Lee</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agile Metrics - The Good, The Bad and The Ugly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Mont-Bleu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mike Lowery</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coaching flow - Moving past resistance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Salle des Fêtes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Mike Bowler</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moving Towards Continuous Delivery: Getting there from here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Gatineau
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Steffan Surdek</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Learning by doing at Bell Mobility OSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Jean-Despréz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Steve Purkis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kanban in the Kitchen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Mont-Bleu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Mark Levison</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beyond Scrum: Building High-Performing Organizations – a game for Managers, ScrumMasters and Product Owners</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Mont-Bleu
-</t>
     </r>
   </si>
   <si>
@@ -605,87 +530,179 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+Salle - Mont-Bleu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ram Srinivasan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Large Scale Scrum (LeSS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Salle - Jean-Despréz</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Dave Rooney</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Emergent Design with Test-Driven Development</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Gatineau</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ram Srinivasan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Large Scale Scrum (LeSS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Salle - Salle des Fêtes</t>
-    </r>
-  </si>
-  <si>
-    <t>Bar - L'endroit sera divulgué durant la cérémonie de fermeture</t>
+      <t xml:space="preserve">
+Mark Levison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beyond Scrum: Building High-Performing Organizations – a game for Managers, ScrumMasters and Product Owners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle -Salle des Fêtes
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Michel Céré</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Killing Agility One Scrum Master at the Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Jean-Despréz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Marie-Christine Legault</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile marketing: a new reality!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Salle - Mont-Bleu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conférencier: Gil Broza
+Individuals and Interactions: 10 Lessons from Putting People Before Process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salle - Salle des Fêtes</t>
+    </r>
   </si>
   <si>
     <r>
@@ -702,19 +719,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>Create an intentional team culture focused on the business value of joy
-and unleash the human energy and the results you always knew were possible.</t>
-    </r>
-  </si>
-  <si>
-    <t>Conférencier: Gil Broza
-Individuals and Interactions: 10 Lessons from Putting People Before Process</t>
+and unleash the human energy and the results you always knew were possible.
+Salle - Salle des Fêtes</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -745,6 +766,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -812,18 +849,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,14 +899,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1188,8 +1273,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1209,12 +1294,12 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="80" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="94" customHeight="1" thickBot="1">
       <c r="A2" s="3">
         <v>0.375</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1235,17 +1320,17 @@
       <c r="A4" s="3">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1" thickBot="1">
@@ -1263,17 +1348,17 @@
       <c r="A6" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1" thickBot="1">
@@ -1287,12 +1372,12 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="53" customHeight="1" thickBot="1">
+    <row r="8" spans="1:5" ht="67" customHeight="1" thickBot="1">
       <c r="A8" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1313,17 +1398,17 @@
       <c r="A10" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1" thickBot="1">
@@ -1341,17 +1426,17 @@
       <c r="A12" s="3">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36" customHeight="1" thickBot="1">
@@ -1370,7 +1455,7 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1389,7 +1474,7 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="74" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/fr/schedule/schedule-fr.xlsx
+++ b/fr/schedule/schedule-fr.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <r>
       <t xml:space="preserve">Inscription (toute la journée)
@@ -721,6 +721,22 @@
       <t>Create an intentional team culture focused on the business value of joy
 and unleash the human energy and the results you always knew were possible.
 Salle - Salle des Fêtes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ouverture et présentations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salle - Salle des Fêtes</t>
     </r>
   </si>
 </sst>
@@ -825,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -837,6 +853,43 @@
       <left style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
@@ -876,7 +929,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,6 +956,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1271,10 +1333,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1294,185 +1356,197 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="94" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="94" customHeight="1" thickBot="1">
+      <c r="A3" s="3">
         <v>0.375</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A3" s="3">
+    <row r="4" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A4" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="115" thickBot="1">
-      <c r="A4" s="3">
+    <row r="5" spans="1:5" ht="115" thickBot="1">
+      <c r="A5" s="3">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A5" s="3">
+    <row r="6" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A6" s="3">
         <v>0.46875</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="145" thickBot="1">
-      <c r="A6" s="3">
+    <row r="7" spans="1:5" ht="145" thickBot="1">
+      <c r="A7" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A7" s="3">
+    <row r="8" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A8" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="67" customHeight="1" thickBot="1">
-      <c r="A8" s="3">
+    <row r="9" spans="1:5" ht="67" customHeight="1" thickBot="1">
+      <c r="A9" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A9" s="3">
+    <row r="10" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A10" s="3">
         <v>9.375E-2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="169" thickBot="1">
-      <c r="A10" s="3">
+    <row r="11" spans="1:5" ht="169" thickBot="1">
+      <c r="A11" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A11" s="3">
+    <row r="12" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A12" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="115" thickBot="1">
-      <c r="A12" s="3">
+    <row r="13" spans="1:5" ht="115" thickBot="1">
+      <c r="A13" s="3">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="3">
+    <row r="14" spans="1:5" ht="36" customHeight="1" thickBot="1">
+      <c r="A14" s="3">
         <v>0.21875</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1" thickBot="1">
-      <c r="A14" s="3">
+    <row r="15" spans="1:5" ht="25" customHeight="1" thickBot="1">
+      <c r="A15" s="3">
         <v>0.23958333333333334</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
